--- a/public/imports/reverse_calculation.xlsx
+++ b/public/imports/reverse_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\kmg-dashboard\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ACB01C-F68D-41AC-B883-BAFDFB912404}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB5FD53-569A-4E90-B026-773EF8C22829}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2920,9 +2920,6 @@
     <t>23.2</t>
   </si>
   <si>
-    <t>UZN_0967 - ЗУ-107б</t>
-  </si>
-  <si>
     <t>0.7559778957567085</t>
   </si>
   <si>
@@ -4502,6 +4499,9 @@
   </si>
   <si>
     <t>ЗУ-24г_ЗУ-24д</t>
+  </si>
+  <si>
+    <t>UZN_0967 - ЗУ-107д</t>
   </si>
 </sst>
 </file>
@@ -5002,8 +5002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5097,34 +5097,34 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>1482</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1483</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>142</v>
@@ -5136,25 +5136,25 @@
         <v>144</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>1485</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>1486</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>145</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>146</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.45">
@@ -5907,7 +5907,7 @@
         <v>285</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>174</v>
@@ -5975,7 +5975,7 @@
         <v>309</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>310</v>
@@ -6300,7 +6300,7 @@
         <v>365</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>366</v>
@@ -10395,25 +10395,25 @@
         <v>83</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>353</v>
+        <v>214</v>
       </c>
       <c r="N83" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="O83" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="O83" s="1" t="s">
+      <c r="P83" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="P83" s="1" t="s">
+      <c r="Q83" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>965</v>
       </c>
       <c r="R83" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="T83" s="2" t="s">
         <v>163</v>
@@ -10433,19 +10433,19 @@
         <v>165</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>247</v>
@@ -10463,22 +10463,22 @@
         <v>250</v>
       </c>
       <c r="N84" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="O84" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="O84" s="1" t="s">
+      <c r="P84" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="P84" s="1" t="s">
+      <c r="Q84" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>974</v>
       </c>
       <c r="R84" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>163</v>
@@ -10498,19 +10498,19 @@
         <v>165</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>259</v>
@@ -10528,22 +10528,22 @@
         <v>262</v>
       </c>
       <c r="N85" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="O85" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="O85" s="1" t="s">
+      <c r="P85" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="P85" s="1" t="s">
+      <c r="Q85" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>983</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>163</v>
@@ -10563,19 +10563,19 @@
         <v>165</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>331</v>
@@ -10593,22 +10593,22 @@
         <v>334</v>
       </c>
       <c r="N86" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="O86" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="O86" s="1" t="s">
+      <c r="P86" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="P86" s="1" t="s">
+      <c r="Q86" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>992</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>163</v>
@@ -10628,10 +10628,10 @@
         <v>165</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>995</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>830</v>
@@ -10640,13 +10640,13 @@
         <v>210</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>319</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>610</v>
@@ -10658,22 +10658,22 @@
         <v>322</v>
       </c>
       <c r="N87" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="O87" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="P87" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="P87" s="1" t="s">
+      <c r="Q87" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>1001</v>
       </c>
       <c r="R87" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>163</v>
@@ -10693,28 +10693,28 @@
         <v>165</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>1005</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>350</v>
       </c>
       <c r="J88" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>88</v>
@@ -10723,22 +10723,22 @@
         <v>353</v>
       </c>
       <c r="N88" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="O88" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="P88" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="P88" s="1" t="s">
+      <c r="Q88" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>1012</v>
       </c>
       <c r="R88" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="T88" s="2" t="s">
         <v>163</v>
@@ -10758,28 +10758,28 @@
         <v>165</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>1016</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J89" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>1019</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>89</v>
@@ -10788,22 +10788,22 @@
         <v>262</v>
       </c>
       <c r="N89" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O89" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="P89" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="P89" s="1" t="s">
+      <c r="Q89" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="R89" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="T89" s="2" t="s">
         <v>163</v>
@@ -10823,19 +10823,19 @@
         <v>165</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>1027</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>271</v>
@@ -10844,7 +10844,7 @@
         <v>417</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>90</v>
@@ -10853,22 +10853,22 @@
         <v>274</v>
       </c>
       <c r="N90" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O90" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="O90" s="1" t="s">
+      <c r="P90" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="P90" s="1" t="s">
+      <c r="Q90" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>1033</v>
       </c>
       <c r="R90" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T90" s="2" t="s">
         <v>163</v>
@@ -10888,19 +10888,19 @@
         <v>165</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>1037</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>223</v>
@@ -10918,22 +10918,22 @@
         <v>226</v>
       </c>
       <c r="N91" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O91" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="P91" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="P91" s="1" t="s">
+      <c r="Q91" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>1042</v>
       </c>
       <c r="R91" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="T91" s="2" t="s">
         <v>163</v>
@@ -10953,19 +10953,19 @@
         <v>165</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>1046</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>331</v>
@@ -10974,7 +10974,7 @@
         <v>891</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>92</v>
@@ -10983,22 +10983,22 @@
         <v>334</v>
       </c>
       <c r="N92" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="O92" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="O92" s="1" t="s">
+      <c r="P92" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="P92" s="1" t="s">
+      <c r="Q92" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>1052</v>
       </c>
       <c r="R92" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>163</v>
@@ -11018,10 +11018,10 @@
         <v>165</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>1055</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>950</v>
@@ -11030,13 +11030,13 @@
         <v>210</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>185</v>
@@ -11048,22 +11048,22 @@
         <v>262</v>
       </c>
       <c r="N93" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="O93" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="P93" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="P93" s="1" t="s">
+      <c r="Q93" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>1061</v>
       </c>
       <c r="R93" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="T93" s="2" t="s">
         <v>163</v>
@@ -11083,19 +11083,19 @@
         <v>165</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>1065</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>362</v>
@@ -11104,7 +11104,7 @@
         <v>452</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>94</v>
@@ -11113,22 +11113,22 @@
         <v>365</v>
       </c>
       <c r="N94" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="O94" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="P94" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="P94" s="1" t="s">
+      <c r="Q94" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>1071</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="T94" s="2" t="s">
         <v>163</v>
@@ -11148,19 +11148,19 @@
         <v>165</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>1075</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>271</v>
@@ -11178,22 +11178,22 @@
         <v>274</v>
       </c>
       <c r="N95" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O95" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="P95" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="P95" s="1" t="s">
+      <c r="Q95" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>1080</v>
       </c>
       <c r="R95" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="T95" s="2" t="s">
         <v>163</v>
@@ -11213,19 +11213,19 @@
         <v>165</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>1084</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>386</v>
@@ -11234,7 +11234,7 @@
         <v>600</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>96</v>
@@ -11243,22 +11243,22 @@
         <v>389</v>
       </c>
       <c r="N96" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="O96" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="O96" s="1" t="s">
+      <c r="P96" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="P96" s="1" t="s">
+      <c r="Q96" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>1090</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="T96" s="2" t="s">
         <v>163</v>
@@ -11281,7 +11281,7 @@
         <v>596</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>680</v>
@@ -11290,7 +11290,7 @@
         <v>210</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>350</v>
@@ -11299,7 +11299,7 @@
         <v>505</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>97</v>
@@ -11308,22 +11308,22 @@
         <v>353</v>
       </c>
       <c r="N97" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O97" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="O97" s="1" t="s">
+      <c r="P97" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="P97" s="1" t="s">
+      <c r="Q97" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="R97" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="T97" s="2" t="s">
         <v>163</v>
@@ -11343,19 +11343,19 @@
         <v>165</v>
       </c>
       <c r="D98" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>1102</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>319</v>
@@ -11373,22 +11373,22 @@
         <v>322</v>
       </c>
       <c r="N98" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O98" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="O98" s="1" t="s">
+      <c r="P98" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="P98" s="1" t="s">
+      <c r="Q98" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="R98" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>163</v>
@@ -11408,28 +11408,28 @@
         <v>165</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>283</v>
       </c>
       <c r="J99" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K99" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>1114</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>99</v>
@@ -11438,22 +11438,22 @@
         <v>286</v>
       </c>
       <c r="N99" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O99" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="O99" s="1" t="s">
+      <c r="P99" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="P99" s="1" t="s">
+      <c r="Q99" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>1118</v>
       </c>
       <c r="R99" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S99" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>163</v>
@@ -11473,7 +11473,7 @@
         <v>165</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>581</v>
@@ -11503,7 +11503,7 @@
         <v>214</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O100" s="1" t="s">
         <v>581</v>
@@ -11538,28 +11538,28 @@
         <v>165</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>1124</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>259</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>101</v>
@@ -11568,22 +11568,22 @@
         <v>262</v>
       </c>
       <c r="N101" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="O101" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="O101" s="1" t="s">
+      <c r="P101" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="P101" s="1" t="s">
+      <c r="Q101" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>1130</v>
       </c>
       <c r="R101" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="T101" s="2" t="s">
         <v>163</v>
@@ -11603,19 +11603,19 @@
         <v>165</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>1134</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>271</v>
@@ -11633,22 +11633,22 @@
         <v>274</v>
       </c>
       <c r="N102" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O102" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="O102" s="1" t="s">
+      <c r="P102" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="P102" s="1" t="s">
+      <c r="Q102" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="R102" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="T102" s="2">
         <v>2</v>
@@ -11668,10 +11668,10 @@
         <v>165</v>
       </c>
       <c r="D103" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>1142</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>757</v>
@@ -11680,7 +11680,7 @@
         <v>210</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>386</v>
@@ -11698,22 +11698,22 @@
         <v>389</v>
       </c>
       <c r="N103" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O103" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="O103" s="1" t="s">
+      <c r="P103" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="P103" s="1" t="s">
+      <c r="Q103" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>1147</v>
       </c>
       <c r="R103" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="T103" s="2" t="s">
         <v>163</v>
@@ -11733,28 +11733,28 @@
         <v>165</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>1151</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>350</v>
       </c>
       <c r="J104" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>1154</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>104</v>
@@ -11763,22 +11763,22 @@
         <v>353</v>
       </c>
       <c r="N104" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="O104" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="O104" s="1" t="s">
+      <c r="P104" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="P104" s="1" t="s">
+      <c r="Q104" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>1158</v>
       </c>
       <c r="R104" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="T104" s="2" t="s">
         <v>163</v>
@@ -11798,25 +11798,25 @@
         <v>165</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>1162</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>306</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>173</v>
@@ -11828,22 +11828,22 @@
         <v>309</v>
       </c>
       <c r="N105" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="O105" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="O105" s="1" t="s">
+      <c r="P105" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="P105" s="1" t="s">
+      <c r="Q105" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>1167</v>
       </c>
       <c r="R105" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="T105" s="2" t="s">
         <v>163</v>
@@ -11863,25 +11863,25 @@
         <v>165</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>1170</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>1171</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>331</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>792</v>
@@ -11893,22 +11893,22 @@
         <v>334</v>
       </c>
       <c r="N106" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O106" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="O106" s="1" t="s">
+      <c r="P106" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="P106" s="1" t="s">
+      <c r="Q106" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>1176</v>
       </c>
       <c r="R106" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S106" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="T106" s="2">
         <v>2</v>
@@ -11928,19 +11928,19 @@
         <v>165</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>959</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>319</v>
@@ -11958,22 +11958,22 @@
         <v>322</v>
       </c>
       <c r="N107" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="O107" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="O107" s="1" t="s">
+      <c r="P107" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="P107" s="1" t="s">
+      <c r="Q107" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="Q107" s="1" t="s">
-        <v>1184</v>
       </c>
       <c r="R107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S107" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="T107" s="2" t="s">
         <v>163</v>
@@ -11993,19 +11993,19 @@
         <v>165</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>1188</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>283</v>
@@ -12023,22 +12023,22 @@
         <v>286</v>
       </c>
       <c r="N108" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="O108" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="O108" s="1" t="s">
+      <c r="P108" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="P108" s="1" t="s">
+      <c r="Q108" s="1" t="s">
         <v>1192</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>1193</v>
       </c>
       <c r="R108" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S108" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T108" s="2" t="s">
         <v>163</v>
@@ -12058,19 +12058,19 @@
         <v>165</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>362</v>
@@ -12079,7 +12079,7 @@
         <v>640</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>109</v>
@@ -12088,22 +12088,22 @@
         <v>365</v>
       </c>
       <c r="N109" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="O109" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="O109" s="1" t="s">
+      <c r="P109" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="P109" s="1" t="s">
+      <c r="Q109" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>1202</v>
       </c>
       <c r="R109" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S109" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="T109" s="2" t="s">
         <v>163</v>
@@ -12123,19 +12123,19 @@
         <v>165</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>1206</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>331</v>
@@ -12153,22 +12153,22 @@
         <v>334</v>
       </c>
       <c r="N110" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="O110" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="O110" s="1" t="s">
+      <c r="P110" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="P110" s="1" t="s">
+      <c r="Q110" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>1211</v>
       </c>
       <c r="R110" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S110" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="T110" s="2" t="s">
         <v>163</v>
@@ -12188,19 +12188,19 @@
         <v>165</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>1214</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>1215</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>247</v>
@@ -12209,7 +12209,7 @@
         <v>629</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>111</v>
@@ -12218,22 +12218,22 @@
         <v>250</v>
       </c>
       <c r="N111" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="O111" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="O111" s="1" t="s">
+      <c r="P111" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="P111" s="1" t="s">
+      <c r="Q111" s="1" t="s">
         <v>1220</v>
-      </c>
-      <c r="Q111" s="1" t="s">
-        <v>1221</v>
       </c>
       <c r="R111" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S111" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="T111" s="2" t="s">
         <v>163</v>
@@ -12253,28 +12253,28 @@
         <v>165</v>
       </c>
       <c r="D112" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>1224</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>1225</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>331</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>112</v>
@@ -12283,22 +12283,22 @@
         <v>334</v>
       </c>
       <c r="N112" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="O112" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="O112" s="1" t="s">
+      <c r="P112" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="P112" s="1" t="s">
+      <c r="Q112" s="1" t="s">
         <v>1230</v>
-      </c>
-      <c r="Q112" s="1" t="s">
-        <v>1231</v>
       </c>
       <c r="R112" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S112" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>163</v>
@@ -12318,19 +12318,19 @@
         <v>165</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>1235</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>331</v>
@@ -12348,22 +12348,22 @@
         <v>334</v>
       </c>
       <c r="N113" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O113" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="O113" s="1" t="s">
+      <c r="P113" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="P113" s="1" t="s">
+      <c r="Q113" s="1" t="s">
         <v>1239</v>
-      </c>
-      <c r="Q113" s="1" t="s">
-        <v>1240</v>
       </c>
       <c r="R113" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>163</v>
@@ -12383,28 +12383,28 @@
         <v>165</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>799</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>362</v>
       </c>
       <c r="J114" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>1245</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>1246</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>114</v>
@@ -12413,22 +12413,22 @@
         <v>365</v>
       </c>
       <c r="N114" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="O114" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="O114" s="1" t="s">
+      <c r="P114" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="P114" s="1" t="s">
+      <c r="Q114" s="1" t="s">
         <v>1249</v>
-      </c>
-      <c r="Q114" s="1" t="s">
-        <v>1250</v>
       </c>
       <c r="R114" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S114" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="T114" s="2" t="s">
         <v>163</v>
@@ -12448,19 +12448,19 @@
         <v>165</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>1253</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>1254</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>197</v>
@@ -12478,22 +12478,22 @@
         <v>200</v>
       </c>
       <c r="N115" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="O115" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="O115" s="1" t="s">
+      <c r="P115" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="P115" s="1" t="s">
+      <c r="Q115" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="Q115" s="1" t="s">
-        <v>1259</v>
       </c>
       <c r="R115" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S115" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="T115" s="2" t="s">
         <v>163</v>
@@ -12513,10 +12513,10 @@
         <v>165</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>1262</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>503</v>
@@ -12525,13 +12525,13 @@
         <v>210</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>283</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>449</v>
@@ -12543,22 +12543,22 @@
         <v>286</v>
       </c>
       <c r="N116" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O116" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="O116" s="1" t="s">
+      <c r="P116" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="P116" s="1" t="s">
+      <c r="Q116" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="Q116" s="1" t="s">
-        <v>1268</v>
       </c>
       <c r="R116" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="T116" s="2" t="s">
         <v>163</v>
@@ -12578,19 +12578,19 @@
         <v>165</v>
       </c>
       <c r="D117" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="F117" s="1" t="s">
         <v>1271</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>1272</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>259</v>
@@ -12608,22 +12608,22 @@
         <v>262</v>
       </c>
       <c r="N117" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="O117" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="O117" s="1" t="s">
+      <c r="P117" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="P117" s="1" t="s">
+      <c r="Q117" s="1" t="s">
         <v>1276</v>
-      </c>
-      <c r="Q117" s="1" t="s">
-        <v>1277</v>
       </c>
       <c r="R117" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="T117" s="2" t="s">
         <v>163</v>
@@ -12643,7 +12643,7 @@
         <v>165</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>581</v>
@@ -12673,7 +12673,7 @@
         <v>377</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O118" s="1" t="s">
         <v>581</v>
@@ -12708,28 +12708,28 @@
         <v>165</v>
       </c>
       <c r="D119" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>1283</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>247</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>119</v>
@@ -12738,22 +12738,22 @@
         <v>250</v>
       </c>
       <c r="N119" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="O119" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="O119" s="1" t="s">
+      <c r="P119" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="P119" s="1" t="s">
+      <c r="Q119" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="Q119" s="1" t="s">
-        <v>1289</v>
       </c>
       <c r="R119" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S119" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="T119" s="2" t="s">
         <v>163</v>
@@ -12773,10 +12773,10 @@
         <v>165</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>1292</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>919</v>
@@ -12785,7 +12785,7 @@
         <v>210</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>247</v>
@@ -12794,7 +12794,7 @@
         <v>526</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>120</v>
@@ -12803,22 +12803,22 @@
         <v>250</v>
       </c>
       <c r="N120" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O120" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="O120" s="1" t="s">
+      <c r="P120" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="P120" s="1" t="s">
+      <c r="Q120" s="1" t="s">
         <v>1297</v>
-      </c>
-      <c r="Q120" s="1" t="s">
-        <v>1298</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S120" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="T120" s="2" t="s">
         <v>163</v>
@@ -12838,19 +12838,19 @@
         <v>165</v>
       </c>
       <c r="D121" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>1301</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>1302</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>331</v>
@@ -12859,7 +12859,7 @@
         <v>718</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>121</v>
@@ -12868,22 +12868,22 @@
         <v>334</v>
       </c>
       <c r="N121" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="O121" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="O121" s="1" t="s">
+      <c r="P121" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="P121" s="1" t="s">
+      <c r="Q121" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="Q121" s="1" t="s">
-        <v>1308</v>
       </c>
       <c r="R121" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S121" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="T121" s="2" t="s">
         <v>163</v>
@@ -12903,7 +12903,7 @@
         <v>165</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>581</v>
@@ -12933,7 +12933,7 @@
         <v>353</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O122" s="1" t="s">
         <v>581</v>
@@ -12968,19 +12968,19 @@
         <v>165</v>
       </c>
       <c r="D123" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>1313</v>
-      </c>
       <c r="F123" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>211</v>
@@ -12998,22 +12998,22 @@
         <v>214</v>
       </c>
       <c r="N123" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="O123" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="O123" s="1" t="s">
+      <c r="P123" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="P123" s="1" t="s">
+      <c r="Q123" s="1" t="s">
         <v>1317</v>
-      </c>
-      <c r="Q123" s="1" t="s">
-        <v>1318</v>
       </c>
       <c r="R123" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S123" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="T123" s="2" t="s">
         <v>163</v>
@@ -13033,19 +13033,19 @@
         <v>165</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>1321</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>1322</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>259</v>
@@ -13054,7 +13054,7 @@
         <v>671</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>124</v>
@@ -13063,22 +13063,22 @@
         <v>262</v>
       </c>
       <c r="N124" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="O124" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="O124" s="1" t="s">
+      <c r="P124" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="P124" s="1" t="s">
+      <c r="Q124" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="Q124" s="1" t="s">
-        <v>1328</v>
       </c>
       <c r="R124" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S124" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="T124" s="2" t="s">
         <v>163</v>
@@ -13098,19 +13098,19 @@
         <v>165</v>
       </c>
       <c r="D125" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>1332</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>374</v>
@@ -13128,22 +13128,22 @@
         <v>377</v>
       </c>
       <c r="N125" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="O125" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="O125" s="1" t="s">
+      <c r="P125" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="P125" s="1" t="s">
+      <c r="Q125" s="1" t="s">
         <v>1336</v>
-      </c>
-      <c r="Q125" s="1" t="s">
-        <v>1337</v>
       </c>
       <c r="R125" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S125" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="T125" s="2" t="s">
         <v>163</v>
@@ -13163,19 +13163,19 @@
         <v>165</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>1340</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>1341</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>259</v>
@@ -13193,22 +13193,22 @@
         <v>262</v>
       </c>
       <c r="N126" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="O126" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="O126" s="1" t="s">
+      <c r="P126" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="P126" s="1" t="s">
+      <c r="Q126" s="1" t="s">
         <v>1345</v>
-      </c>
-      <c r="Q126" s="1" t="s">
-        <v>1346</v>
       </c>
       <c r="R126" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S126" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="T126" s="2" t="s">
         <v>163</v>
@@ -13228,19 +13228,19 @@
         <v>165</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>1349</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>1350</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>211</v>
@@ -13249,7 +13249,7 @@
         <v>629</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>127</v>
@@ -13258,22 +13258,22 @@
         <v>214</v>
       </c>
       <c r="N127" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="O127" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="O127" s="1" t="s">
+      <c r="P127" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="P127" s="1" t="s">
+      <c r="Q127" s="1" t="s">
         <v>1355</v>
-      </c>
-      <c r="Q127" s="1" t="s">
-        <v>1356</v>
       </c>
       <c r="R127" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="T127" s="2" t="s">
         <v>163</v>
@@ -13293,28 +13293,28 @@
         <v>165</v>
       </c>
       <c r="D128" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>1359</v>
-      </c>
       <c r="F128" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>319</v>
       </c>
       <c r="J128" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>1361</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>1362</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>128</v>
@@ -13323,22 +13323,22 @@
         <v>322</v>
       </c>
       <c r="N128" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="O128" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="O128" s="1" t="s">
+      <c r="P128" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="P128" s="1" t="s">
+      <c r="Q128" s="1" t="s">
         <v>1365</v>
-      </c>
-      <c r="Q128" s="1" t="s">
-        <v>1366</v>
       </c>
       <c r="R128" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="T128" s="2" t="s">
         <v>163</v>
@@ -13358,19 +13358,19 @@
         <v>165</v>
       </c>
       <c r="D129" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>1369</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>1370</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>362</v>
@@ -13379,7 +13379,7 @@
         <v>452</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>129</v>
@@ -13388,22 +13388,22 @@
         <v>365</v>
       </c>
       <c r="N129" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="O129" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="O129" s="1" t="s">
+      <c r="P129" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="P129" s="1" t="s">
+      <c r="Q129" s="1" t="s">
         <v>1375</v>
-      </c>
-      <c r="Q129" s="1" t="s">
-        <v>1376</v>
       </c>
       <c r="R129" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="T129" s="2" t="s">
         <v>163</v>
@@ -13423,19 +13423,19 @@
         <v>165</v>
       </c>
       <c r="D130" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>1379</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>1380</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>331</v>
@@ -13444,7 +13444,7 @@
         <v>484</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>130</v>
@@ -13453,22 +13453,22 @@
         <v>334</v>
       </c>
       <c r="N130" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O130" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="O130" s="1" t="s">
+      <c r="P130" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="P130" s="1" t="s">
+      <c r="Q130" s="1" t="s">
         <v>1385</v>
-      </c>
-      <c r="Q130" s="1" t="s">
-        <v>1386</v>
       </c>
       <c r="R130" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="T130" s="2" t="s">
         <v>163</v>
@@ -13488,19 +13488,19 @@
         <v>165</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="E131" s="1" t="s">
-        <v>1389</v>
-      </c>
       <c r="F131" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>197</v>
@@ -13518,22 +13518,22 @@
         <v>200</v>
       </c>
       <c r="N131" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="O131" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="O131" s="1" t="s">
+      <c r="P131" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="P131" s="1" t="s">
+      <c r="Q131" s="1" t="s">
         <v>1393</v>
-      </c>
-      <c r="Q131" s="1" t="s">
-        <v>1394</v>
       </c>
       <c r="R131" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="T131" s="2" t="s">
         <v>163</v>
@@ -13553,19 +13553,19 @@
         <v>165</v>
       </c>
       <c r="D132" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>1397</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>1398</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>319</v>
@@ -13574,7 +13574,7 @@
         <v>484</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>132</v>
@@ -13583,22 +13583,22 @@
         <v>322</v>
       </c>
       <c r="N132" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="O132" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="O132" s="1" t="s">
+      <c r="P132" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="P132" s="1" t="s">
+      <c r="Q132" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="Q132" s="1" t="s">
-        <v>1404</v>
       </c>
       <c r="R132" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="T132" s="2" t="s">
         <v>163</v>
@@ -13618,19 +13618,19 @@
         <v>165</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>1407</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>1408</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>306</v>
@@ -13639,7 +13639,7 @@
         <v>651</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>133</v>
@@ -13648,22 +13648,22 @@
         <v>309</v>
       </c>
       <c r="N133" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="O133" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="O133" s="1" t="s">
+      <c r="P133" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="P133" s="1" t="s">
+      <c r="Q133" s="1" t="s">
         <v>1413</v>
-      </c>
-      <c r="Q133" s="1" t="s">
-        <v>1414</v>
       </c>
       <c r="R133" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="T133" s="2" t="s">
         <v>163</v>
@@ -13683,10 +13683,10 @@
         <v>165</v>
       </c>
       <c r="D134" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>1416</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>1417</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>503</v>
@@ -13695,7 +13695,7 @@
         <v>210</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>223</v>
@@ -13704,7 +13704,7 @@
         <v>484</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>134</v>
@@ -13713,22 +13713,22 @@
         <v>226</v>
       </c>
       <c r="N134" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="O134" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="O134" s="1" t="s">
+      <c r="P134" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="P134" s="1" t="s">
+      <c r="Q134" s="1" t="s">
         <v>1422</v>
-      </c>
-      <c r="Q134" s="1" t="s">
-        <v>1423</v>
       </c>
       <c r="R134" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="T134" s="2" t="s">
         <v>163</v>
@@ -13748,19 +13748,19 @@
         <v>165</v>
       </c>
       <c r="D135" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>1426</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>1427</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>362</v>
@@ -13769,7 +13769,7 @@
         <v>640</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>135</v>
@@ -13778,22 +13778,22 @@
         <v>365</v>
       </c>
       <c r="N135" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="O135" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="O135" s="1" t="s">
+      <c r="P135" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="P135" s="1" t="s">
+      <c r="Q135" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="Q135" s="1" t="s">
-        <v>1432</v>
       </c>
       <c r="R135" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="T135" s="2" t="s">
         <v>163</v>
@@ -13813,7 +13813,7 @@
         <v>165</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>581</v>
@@ -13843,7 +13843,7 @@
         <v>377</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>581</v>
@@ -13878,19 +13878,19 @@
         <v>165</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>1437</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>1438</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>386</v>
@@ -13908,22 +13908,22 @@
         <v>389</v>
       </c>
       <c r="N137" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O137" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="O137" s="1" t="s">
+      <c r="P137" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="P137" s="1" t="s">
+      <c r="Q137" s="1" t="s">
         <v>1442</v>
-      </c>
-      <c r="Q137" s="1" t="s">
-        <v>1443</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>22</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="T137" s="2" t="s">
         <v>163</v>
@@ -13943,19 +13943,19 @@
         <v>165</v>
       </c>
       <c r="D138" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>1446</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>1447</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>350</v>
@@ -13964,7 +13964,7 @@
         <v>526</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>138</v>
@@ -13973,22 +13973,22 @@
         <v>353</v>
       </c>
       <c r="N138" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="O138" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="O138" s="1" t="s">
+      <c r="P138" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="P138" s="1" t="s">
+      <c r="Q138" s="1" t="s">
         <v>1452</v>
-      </c>
-      <c r="Q138" s="1" t="s">
-        <v>1453</v>
       </c>
       <c r="R138" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="T138" s="2" t="s">
         <v>163</v>
@@ -14008,19 +14008,19 @@
         <v>165</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>1456</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>1457</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>283</v>
@@ -14029,7 +14029,7 @@
         <v>505</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>139</v>
@@ -14038,22 +14038,22 @@
         <v>286</v>
       </c>
       <c r="N139" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O139" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="O139" s="1" t="s">
+      <c r="P139" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="P139" s="1" t="s">
+      <c r="Q139" s="1" t="s">
         <v>1462</v>
-      </c>
-      <c r="Q139" s="1" t="s">
-        <v>1463</v>
       </c>
       <c r="R139" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="T139" s="2" t="s">
         <v>163</v>
@@ -14073,19 +14073,19 @@
         <v>165</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>1466</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>1467</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>210</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>247</v>
@@ -14103,22 +14103,22 @@
         <v>250</v>
       </c>
       <c r="N140" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="O140" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="O140" s="1" t="s">
+      <c r="P140" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="P140" s="1" t="s">
+      <c r="Q140" s="1" t="s">
         <v>1471</v>
-      </c>
-      <c r="Q140" s="1" t="s">
-        <v>1472</v>
       </c>
       <c r="R140" s="1" t="s">
         <v>21</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="T140" s="2" t="s">
         <v>163</v>
